--- a/artfynd/A 21840-2023.xlsx
+++ b/artfynd/A 21840-2023.xlsx
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109587663</v>
+        <v>109580927</v>
       </c>
       <c r="B8" t="n">
         <v>95519</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1404,14 +1404,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likakurunvuoma, Nb</t>
+          <t>Alanen Salmijärvi, Nb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>872056.2819645405</v>
+        <v>872647.1055189725</v>
       </c>
       <c r="R8" t="n">
-        <v>7401693.665084289</v>
+        <v>7402025.354246896</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109580927</v>
+        <v>109585029</v>
       </c>
       <c r="B9" t="n">
-        <v>95519</v>
+        <v>78596</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,47 +1496,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221945</v>
+        <v>6462</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Alanen Salmijärvi, Nb</t>
+          <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>872647.1055189725</v>
+        <v>872313.0231759783</v>
       </c>
       <c r="R9" t="n">
-        <v>7402025.354246896</v>
+        <v>7401870.803298575</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1565,7 +1556,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1575,7 +1566,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1590,22 +1581,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109585029</v>
+        <v>109589676</v>
       </c>
       <c r="B10" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1614,25 +1605,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1643,10 +1634,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>872313.0231759783</v>
+        <v>872262.8657010754</v>
       </c>
       <c r="R10" t="n">
-        <v>7401870.803298575</v>
+        <v>7401728.055444526</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1678,7 +1669,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1688,7 +1679,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1715,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109589676</v>
+        <v>109589896</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1727,25 +1718,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1756,13 +1747,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>872262.8657010754</v>
+        <v>872652.7044640286</v>
       </c>
       <c r="R11" t="n">
-        <v>7401728.055444526</v>
+        <v>7401751.360719047</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1791,7 +1782,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1801,7 +1792,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1816,22 +1807,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109589896</v>
+        <v>109584904</v>
       </c>
       <c r="B12" t="n">
-        <v>95519</v>
+        <v>89952</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1840,28 +1831,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221945</v>
+        <v>760</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1869,13 +1864,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>872652.7044640286</v>
+        <v>872262.8657010754</v>
       </c>
       <c r="R12" t="n">
-        <v>7401751.360719047</v>
+        <v>7401728.055444526</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1904,7 +1899,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1914,7 +1909,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1929,22 +1924,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>109584904</v>
+        <v>110352283</v>
       </c>
       <c r="B13" t="n">
-        <v>89952</v>
+        <v>96334</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1957,42 +1952,49 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>760</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>dm²</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>872262.8657010754</v>
+        <v>872686.1980702648</v>
       </c>
       <c r="R13" t="n">
-        <v>7401728.055444526</v>
+        <v>7401718.77633446</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2016,22 +2018,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2040,28 +2042,29 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110352283</v>
+        <v>110352297</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2070,50 +2073,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>872686.1980702648</v>
+        <v>872071.0404314095</v>
       </c>
       <c r="R14" t="n">
-        <v>7401718.77633446</v>
+        <v>7401787.646684287</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2164,7 +2155,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2183,7 +2173,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110352267</v>
+        <v>110352269</v>
       </c>
       <c r="B15" t="n">
         <v>56411</v>
@@ -2223,10 +2213,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>872016.0037818676</v>
+        <v>872428.2641931013</v>
       </c>
       <c r="R15" t="n">
-        <v>7401866.138258775</v>
+        <v>7401923.513196967</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2295,10 +2285,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110352297</v>
+        <v>110352252</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2307,25 +2297,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2335,10 +2325,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>872071.0404314095</v>
+        <v>872158.959245434</v>
       </c>
       <c r="R16" t="n">
-        <v>7401787.646684287</v>
+        <v>7401737.80667756</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2407,7 +2397,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110352269</v>
+        <v>110352270</v>
       </c>
       <c r="B17" t="n">
         <v>56411</v>
@@ -2447,10 +2437,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>872428.2641931013</v>
+        <v>872579.2766184323</v>
       </c>
       <c r="R17" t="n">
-        <v>7401923.513196967</v>
+        <v>7402022.221261375</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2519,10 +2509,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110352252</v>
+        <v>110352268</v>
       </c>
       <c r="B18" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2531,25 +2521,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2559,10 +2549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>872158.959245434</v>
+        <v>872253.1779717042</v>
       </c>
       <c r="R18" t="n">
-        <v>7401737.80667756</v>
+        <v>7401928.064118479</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2631,10 +2621,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110352270</v>
+        <v>110352251</v>
       </c>
       <c r="B19" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2643,25 +2633,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2671,10 +2661,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>872579.2766184323</v>
+        <v>872079.2612414506</v>
       </c>
       <c r="R19" t="n">
-        <v>7402022.221261375</v>
+        <v>7401774.637579379</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2743,10 +2733,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110352273</v>
+        <v>110352253</v>
       </c>
       <c r="B20" t="n">
-        <v>95525</v>
+        <v>96354</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2759,21 +2749,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221941</v>
+        <v>221952</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2783,10 +2773,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>872002.9214147618</v>
+        <v>872183.3300152288</v>
       </c>
       <c r="R20" t="n">
-        <v>7401717.921293773</v>
+        <v>7401853.26038431</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2855,7 +2845,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110352268</v>
+        <v>110352259</v>
       </c>
       <c r="B21" t="n">
         <v>56411</v>
@@ -2895,10 +2885,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>872253.1779717042</v>
+        <v>872139.4517165683</v>
       </c>
       <c r="R21" t="n">
-        <v>7401928.064118479</v>
+        <v>7401777.531099883</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2967,7 +2957,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110352294</v>
+        <v>110352290</v>
       </c>
       <c r="B22" t="n">
         <v>77506</v>
@@ -3007,10 +2997,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>871789.0876757605</v>
+        <v>872102.0461973262</v>
       </c>
       <c r="R22" t="n">
-        <v>7401785.044630839</v>
+        <v>7401860.019874323</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3079,7 +3069,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110352251</v>
+        <v>110352254</v>
       </c>
       <c r="B23" t="n">
         <v>96354</v>
@@ -3119,10 +3109,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>872079.2612414506</v>
+        <v>872204.6734910461</v>
       </c>
       <c r="R23" t="n">
-        <v>7401774.637579379</v>
+        <v>7401898.507746806</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3191,10 +3181,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110352293</v>
+        <v>110352256</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3203,25 +3193,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3231,10 +3221,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>871853.036014237</v>
+        <v>872460.9337284705</v>
       </c>
       <c r="R24" t="n">
-        <v>7401571.787869599</v>
+        <v>7401962.630287396</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3303,10 +3293,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110352237</v>
+        <v>110352299</v>
       </c>
       <c r="B25" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3319,21 +3309,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3343,10 +3333,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>872036.8534421038</v>
+        <v>872596.8533211274</v>
       </c>
       <c r="R25" t="n">
-        <v>7401876.218543597</v>
+        <v>7402041.545192691</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3415,10 +3405,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110352253</v>
+        <v>110352305</v>
       </c>
       <c r="B26" t="n">
-        <v>96354</v>
+        <v>96251</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3431,21 +3421,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3455,10 +3445,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>872183.3300152288</v>
+        <v>872451.9080311639</v>
       </c>
       <c r="R26" t="n">
-        <v>7401853.26038431</v>
+        <v>7401966.653339936</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3527,10 +3517,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110352259</v>
+        <v>110352284</v>
       </c>
       <c r="B27" t="n">
-        <v>56411</v>
+        <v>96334</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3539,38 +3529,50 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>872139.4517165683</v>
+        <v>872078.285623329</v>
       </c>
       <c r="R27" t="n">
-        <v>7401777.531099883</v>
+        <v>7401772.891897229</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3621,6 +3623,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3639,10 +3642,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110352248</v>
+        <v>110352257</v>
       </c>
       <c r="B28" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3651,25 +3654,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3679,10 +3682,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>871759.5004132842</v>
+        <v>872742.4832542776</v>
       </c>
       <c r="R28" t="n">
-        <v>7401830.669261035</v>
+        <v>7401759.483955508</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3751,10 +3754,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110352290</v>
+        <v>110352272</v>
       </c>
       <c r="B29" t="n">
-        <v>77506</v>
+        <v>95525</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3763,25 +3766,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3791,10 +3794,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>872102.0461973262</v>
+        <v>872757.6859652263</v>
       </c>
       <c r="R29" t="n">
-        <v>7401860.019874323</v>
+        <v>7401748.631772862</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3863,10 +3866,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110352254</v>
+        <v>110352224</v>
       </c>
       <c r="B30" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3875,25 +3878,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3903,10 +3906,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>872204.6734910461</v>
+        <v>872530.1257209047</v>
       </c>
       <c r="R30" t="n">
-        <v>7401898.507746806</v>
+        <v>7401958.682721399</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3975,10 +3978,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110352256</v>
+        <v>110352258</v>
       </c>
       <c r="B31" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3987,25 +3990,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4015,10 +4018,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>872460.9337284705</v>
+        <v>872413.2668344975</v>
       </c>
       <c r="R31" t="n">
-        <v>7401962.630287396</v>
+        <v>7401691.110938008</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4087,10 +4090,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110352296</v>
+        <v>110352306</v>
       </c>
       <c r="B32" t="n">
-        <v>77506</v>
+        <v>96251</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4099,25 +4102,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4127,10 +4130,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>872016.0037818676</v>
+        <v>872460.9337284705</v>
       </c>
       <c r="R32" t="n">
-        <v>7401866.138258775</v>
+        <v>7401962.630287396</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4199,10 +4202,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110352265</v>
+        <v>110352303</v>
       </c>
       <c r="B33" t="n">
-        <v>56411</v>
+        <v>96251</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4211,25 +4214,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4239,10 +4242,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>871853.3204447492</v>
+        <v>872447.0637659379</v>
       </c>
       <c r="R33" t="n">
-        <v>7401542.776755353</v>
+        <v>7401954.701530484</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4311,10 +4314,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110352241</v>
+        <v>110352289</v>
       </c>
       <c r="B34" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4323,25 +4326,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4351,10 +4354,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>871887.4526498909</v>
+        <v>872429.4114879651</v>
       </c>
       <c r="R34" t="n">
-        <v>7401535.284248191</v>
+        <v>7401685.226157704</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4423,10 +4426,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110352299</v>
+        <v>110352260</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4439,21 +4442,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4463,10 +4466,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>872596.8533211274</v>
+        <v>872093.3196143582</v>
       </c>
       <c r="R35" t="n">
-        <v>7402041.545192691</v>
+        <v>7401843.912864308</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4535,7 +4538,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110352249</v>
+        <v>110352240</v>
       </c>
       <c r="B36" t="n">
         <v>96354</v>
@@ -4575,10 +4578,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>871878.3030424744</v>
+        <v>872693.7185518006</v>
       </c>
       <c r="R36" t="n">
-        <v>7401845.106712915</v>
+        <v>7401755.704120613</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4647,10 +4650,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110352305</v>
+        <v>110352255</v>
       </c>
       <c r="B37" t="n">
-        <v>96251</v>
+        <v>96354</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4663,21 +4666,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4687,10 +4690,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>872451.9080311639</v>
+        <v>872223.475517925</v>
       </c>
       <c r="R37" t="n">
-        <v>7401966.653339936</v>
+        <v>7401929.694435073</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4759,10 +4762,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110352262</v>
+        <v>110352298</v>
       </c>
       <c r="B38" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4775,21 +4778,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4799,10 +4802,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>871860.5938579786</v>
+        <v>872365.4414770559</v>
       </c>
       <c r="R38" t="n">
-        <v>7401509.867907663</v>
+        <v>7401841.585346792</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4871,10 +4874,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>110352245</v>
+        <v>109587663</v>
       </c>
       <c r="B39" t="n">
-        <v>96354</v>
+        <v>95519</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4887,37 +4890,47 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221952</v>
+        <v>221945</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>871793.2460697003</v>
+        <v>872056.2819645405</v>
       </c>
       <c r="R39" t="n">
-        <v>7401781.168659667</v>
+        <v>7401693.665084289</v>
       </c>
       <c r="S39" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4941,22 +4954,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4971,22 +4984,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>110352244</v>
+        <v>110352267</v>
       </c>
       <c r="B40" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4995,25 +5008,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5023,10 +5036,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>871856.9393482964</v>
+        <v>872016.0037818676</v>
       </c>
       <c r="R40" t="n">
-        <v>7401578.77064613</v>
+        <v>7401866.138258775</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5095,10 +5108,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110352284</v>
+        <v>110352273</v>
       </c>
       <c r="B41" t="n">
-        <v>96334</v>
+        <v>95525</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5107,50 +5120,38 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>221941</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>872078.285623329</v>
+        <v>872002.9214147618</v>
       </c>
       <c r="R41" t="n">
-        <v>7401772.891897229</v>
+        <v>7401717.921293773</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5201,7 +5202,6 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
-      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>110352308</v>
+        <v>110352294</v>
       </c>
       <c r="B42" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>872032.4707695446</v>
+        <v>871789.0876757605</v>
       </c>
       <c r="R42" t="n">
-        <v>7401777.18773846</v>
+        <v>7401785.044630839</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>110352257</v>
+        <v>110352293</v>
       </c>
       <c r="B43" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5348,21 +5348,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>872742.4832542776</v>
+        <v>871853.036014237</v>
       </c>
       <c r="R43" t="n">
-        <v>7401759.483955508</v>
+        <v>7401571.787869599</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110352272</v>
+        <v>110352237</v>
       </c>
       <c r="B44" t="n">
-        <v>95525</v>
+        <v>56540</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5456,25 +5456,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>221941</v>
+        <v>103021</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>872757.6859652263</v>
+        <v>872036.8534421038</v>
       </c>
       <c r="R44" t="n">
-        <v>7401748.631772862</v>
+        <v>7401876.218543597</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>110352224</v>
+        <v>110352248</v>
       </c>
       <c r="B45" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>872530.1257209047</v>
+        <v>871759.5004132842</v>
       </c>
       <c r="R45" t="n">
-        <v>7401958.682721399</v>
+        <v>7401830.669261035</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>110352292</v>
+        <v>110352296</v>
       </c>
       <c r="B46" t="n">
         <v>77506</v>
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>871856.3769793685</v>
+        <v>872016.0037818676</v>
       </c>
       <c r="R46" t="n">
-        <v>7401550.048651446</v>
+        <v>7401866.138258775</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>110352258</v>
+        <v>110352265</v>
       </c>
       <c r="B47" t="n">
         <v>56411</v>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>872413.2668344975</v>
+        <v>871853.3204447492</v>
       </c>
       <c r="R47" t="n">
-        <v>7401691.110938008</v>
+        <v>7401542.776755353</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110352302</v>
+        <v>110352241</v>
       </c>
       <c r="B48" t="n">
-        <v>96251</v>
+        <v>96354</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5908,21 +5908,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>871853.0263343945</v>
+        <v>871887.4526498909</v>
       </c>
       <c r="R48" t="n">
-        <v>7401577.838512736</v>
+        <v>7401535.284248191</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110352295</v>
+        <v>110352249</v>
       </c>
       <c r="B49" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6016,25 +6016,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>871735.0676543417</v>
+        <v>871878.3030424744</v>
       </c>
       <c r="R49" t="n">
-        <v>7401811.231889402</v>
+        <v>7401845.106712915</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>110352306</v>
+        <v>110352262</v>
       </c>
       <c r="B50" t="n">
-        <v>96251</v>
+        <v>56411</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6128,25 +6128,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>219790</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>872460.9337284705</v>
+        <v>871860.5938579786</v>
       </c>
       <c r="R50" t="n">
-        <v>7401962.630287396</v>
+        <v>7401509.867907663</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110352247</v>
+        <v>110352245</v>
       </c>
       <c r="B51" t="n">
         <v>96354</v>
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>871724.6925151362</v>
+        <v>871793.2460697003</v>
       </c>
       <c r="R51" t="n">
-        <v>7401816.285272104</v>
+        <v>7401781.168659667</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>110352303</v>
+        <v>110352244</v>
       </c>
       <c r="B52" t="n">
-        <v>96251</v>
+        <v>96354</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6356,21 +6356,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>872447.0637659379</v>
+        <v>871856.9393482964</v>
       </c>
       <c r="R52" t="n">
-        <v>7401954.701530484</v>
+        <v>7401578.77064613</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110352274</v>
+        <v>110352308</v>
       </c>
       <c r="B53" t="n">
-        <v>95525</v>
+        <v>78602</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6468,21 +6468,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>221941</v>
+        <v>6463</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>871970.8201866623</v>
+        <v>872032.4707695446</v>
       </c>
       <c r="R53" t="n">
-        <v>7401665.571619499</v>
+        <v>7401777.18773846</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>110352289</v>
+        <v>110352292</v>
       </c>
       <c r="B54" t="n">
         <v>77506</v>
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>872429.4114879651</v>
+        <v>871856.3769793685</v>
       </c>
       <c r="R54" t="n">
-        <v>7401685.226157704</v>
+        <v>7401550.048651446</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>110352291</v>
+        <v>110352302</v>
       </c>
       <c r="B55" t="n">
-        <v>77506</v>
+        <v>96251</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6688,25 +6688,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>219790</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6716,10 +6716,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>872046.3208336993</v>
+        <v>871853.0263343945</v>
       </c>
       <c r="R55" t="n">
-        <v>7401782.287589862</v>
+        <v>7401577.838512736</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>110352239</v>
+        <v>110352295</v>
       </c>
       <c r="B56" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6800,25 +6800,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>872030.4543363631</v>
+        <v>871735.0676543417</v>
       </c>
       <c r="R56" t="n">
-        <v>7401765.215295625</v>
+        <v>7401811.231889402</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>110352243</v>
+        <v>110352247</v>
       </c>
       <c r="B57" t="n">
         <v>96354</v>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>871855.0483325503</v>
+        <v>871724.6925151362</v>
       </c>
       <c r="R57" t="n">
-        <v>7401553.903812508</v>
+        <v>7401816.285272104</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>110352260</v>
+        <v>110352274</v>
       </c>
       <c r="B58" t="n">
-        <v>56411</v>
+        <v>95525</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7024,25 +7024,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>221941</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7052,10 +7052,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>872093.3196143582</v>
+        <v>871970.8201866623</v>
       </c>
       <c r="R58" t="n">
-        <v>7401843.912864308</v>
+        <v>7401665.571619499</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>110352240</v>
+        <v>110352291</v>
       </c>
       <c r="B59" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7136,25 +7136,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>872693.7185518006</v>
+        <v>872046.3208336993</v>
       </c>
       <c r="R59" t="n">
-        <v>7401755.704120613</v>
+        <v>7401782.287589862</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110352255</v>
+        <v>110352239</v>
       </c>
       <c r="B60" t="n">
-        <v>96354</v>
+        <v>78596</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7252,21 +7252,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>221952</v>
+        <v>6462</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7276,10 +7276,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>872223.475517925</v>
+        <v>872030.4543363631</v>
       </c>
       <c r="R60" t="n">
-        <v>7401929.694435073</v>
+        <v>7401765.215295625</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>110352266</v>
+        <v>110352243</v>
       </c>
       <c r="B61" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7360,25 +7360,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7388,10 +7388,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>871805.858204409</v>
+        <v>871855.0483325503</v>
       </c>
       <c r="R61" t="n">
-        <v>7401816.357206343</v>
+        <v>7401553.903812508</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7460,10 +7460,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>110352246</v>
+        <v>110352266</v>
       </c>
       <c r="B62" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7472,25 +7472,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>871787.318648403</v>
+        <v>871805.858204409</v>
       </c>
       <c r="R62" t="n">
-        <v>7401783.191921631</v>
+        <v>7401816.357206343</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>110352298</v>
+        <v>110352246</v>
       </c>
       <c r="B63" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7584,25 +7584,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>872365.4414770559</v>
+        <v>871787.318648403</v>
       </c>
       <c r="R63" t="n">
-        <v>7401841.585346792</v>
+        <v>7401783.191921631</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>

--- a/artfynd/A 21840-2023.xlsx
+++ b/artfynd/A 21840-2023.xlsx
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109580927</v>
+        <v>109587663</v>
       </c>
       <c r="B8" t="n">
         <v>95519</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1404,14 +1404,14 @@
       <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Alanen Salmijärvi, Nb</t>
+          <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>872647.1055189725</v>
+        <v>872056.2819645405</v>
       </c>
       <c r="R8" t="n">
-        <v>7402025.354246896</v>
+        <v>7401693.665084289</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:59</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>109585029</v>
+        <v>109580927</v>
       </c>
       <c r="B9" t="n">
-        <v>78596</v>
+        <v>95519</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,38 +1496,47 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6462</v>
+        <v>221945</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>m²</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likakurunvuoma, Nb</t>
+          <t>Alanen Salmijärvi, Nb</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>872313.0231759783</v>
+        <v>872647.1055189725</v>
       </c>
       <c r="R9" t="n">
-        <v>7401870.803298575</v>
+        <v>7402025.354246896</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1556,7 +1565,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1566,7 +1575,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:40</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1581,22 +1590,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>109589676</v>
+        <v>109585029</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,25 +1614,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1634,10 +1643,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>872262.8657010754</v>
+        <v>872313.0231759783</v>
       </c>
       <c r="R10" t="n">
-        <v>7401728.055444526</v>
+        <v>7401870.803298575</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1669,7 +1678,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1679,7 +1688,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:54</t>
+          <t>12:40</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1706,10 +1715,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109589896</v>
+        <v>109589676</v>
       </c>
       <c r="B11" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1718,25 +1727,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1747,13 +1756,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>872652.7044640286</v>
+        <v>872262.8657010754</v>
       </c>
       <c r="R11" t="n">
-        <v>7401751.360719047</v>
+        <v>7401728.055444526</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1782,7 +1791,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1792,7 +1801,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>14:54</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1807,22 +1816,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>109584904</v>
+        <v>109589896</v>
       </c>
       <c r="B12" t="n">
-        <v>89952</v>
+        <v>95519</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1831,32 +1840,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>760</v>
+        <v>221945</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Doftticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Haploporus odorus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Sommerf.) Bondartsev &amp; Singer</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1864,13 +1869,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>872262.8657010754</v>
+        <v>872652.7044640286</v>
       </c>
       <c r="R12" t="n">
-        <v>7401728.055444526</v>
+        <v>7401751.360719047</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1899,7 +1904,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1909,7 +1914,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>12:34</t>
+          <t>14:59</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1924,22 +1929,22 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Marie Persson</t>
+          <t>Viktoria Sturk</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110352283</v>
+        <v>109584904</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>89952</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1952,49 +1957,42 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>760</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Doftticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Haploporus odorus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Sommerf.) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>dm²</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>872686.1980702648</v>
+        <v>872262.8657010754</v>
       </c>
       <c r="R13" t="n">
-        <v>7401718.77633446</v>
+        <v>7401728.055444526</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2018,22 +2016,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2023-06-12</t>
+          <t>2023-05-28</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>12:34</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2042,29 +2040,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Marie Karlsson</t>
+          <t>Marie Persson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>110352297</v>
+        <v>110352283</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>96334</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2073,38 +2070,50 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>872071.0404314095</v>
+        <v>872686.1980702648</v>
       </c>
       <c r="R14" t="n">
-        <v>7401787.646684287</v>
+        <v>7401718.77633446</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,6 +2164,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2173,7 +2183,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>110352269</v>
+        <v>110352267</v>
       </c>
       <c r="B15" t="n">
         <v>56411</v>
@@ -2213,10 +2223,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>872428.2641931013</v>
+        <v>872016.0037818676</v>
       </c>
       <c r="R15" t="n">
-        <v>7401923.513196967</v>
+        <v>7401866.138258775</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2285,10 +2295,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>110352252</v>
+        <v>110352297</v>
       </c>
       <c r="B16" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2297,25 +2307,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2325,10 +2335,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>872158.959245434</v>
+        <v>872071.0404314095</v>
       </c>
       <c r="R16" t="n">
-        <v>7401737.80667756</v>
+        <v>7401787.646684287</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2397,7 +2407,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>110352270</v>
+        <v>110352269</v>
       </c>
       <c r="B17" t="n">
         <v>56411</v>
@@ -2437,10 +2447,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>872579.2766184323</v>
+        <v>872428.2641931013</v>
       </c>
       <c r="R17" t="n">
-        <v>7402022.221261375</v>
+        <v>7401923.513196967</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2509,10 +2519,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>110352268</v>
+        <v>110352252</v>
       </c>
       <c r="B18" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2521,25 +2531,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2549,10 +2559,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>872253.1779717042</v>
+        <v>872158.959245434</v>
       </c>
       <c r="R18" t="n">
-        <v>7401928.064118479</v>
+        <v>7401737.80667756</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2621,10 +2631,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>110352251</v>
+        <v>110352270</v>
       </c>
       <c r="B19" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2633,25 +2643,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2661,10 +2671,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>872079.2612414506</v>
+        <v>872579.2766184323</v>
       </c>
       <c r="R19" t="n">
-        <v>7401774.637579379</v>
+        <v>7402022.221261375</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2733,10 +2743,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>110352253</v>
+        <v>110352273</v>
       </c>
       <c r="B20" t="n">
-        <v>96354</v>
+        <v>95525</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2749,21 +2759,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>221952</v>
+        <v>221941</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2773,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>872183.3300152288</v>
+        <v>872002.9214147618</v>
       </c>
       <c r="R20" t="n">
-        <v>7401853.26038431</v>
+        <v>7401717.921293773</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2845,7 +2855,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>110352259</v>
+        <v>110352268</v>
       </c>
       <c r="B21" t="n">
         <v>56411</v>
@@ -2885,10 +2895,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>872139.4517165683</v>
+        <v>872253.1779717042</v>
       </c>
       <c r="R21" t="n">
-        <v>7401777.531099883</v>
+        <v>7401928.064118479</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2957,7 +2967,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110352290</v>
+        <v>110352294</v>
       </c>
       <c r="B22" t="n">
         <v>77506</v>
@@ -2997,10 +3007,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>872102.0461973262</v>
+        <v>871789.0876757605</v>
       </c>
       <c r="R22" t="n">
-        <v>7401860.019874323</v>
+        <v>7401785.044630839</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3069,7 +3079,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110352254</v>
+        <v>110352251</v>
       </c>
       <c r="B23" t="n">
         <v>96354</v>
@@ -3109,10 +3119,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>872204.6734910461</v>
+        <v>872079.2612414506</v>
       </c>
       <c r="R23" t="n">
-        <v>7401898.507746806</v>
+        <v>7401774.637579379</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3181,10 +3191,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>110352256</v>
+        <v>110352293</v>
       </c>
       <c r="B24" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3193,25 +3203,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3221,10 +3231,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>872460.9337284705</v>
+        <v>871853.036014237</v>
       </c>
       <c r="R24" t="n">
-        <v>7401962.630287396</v>
+        <v>7401571.787869599</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3293,10 +3303,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>110352299</v>
+        <v>110352237</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3309,21 +3319,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3333,10 +3343,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>872596.8533211274</v>
+        <v>872036.8534421038</v>
       </c>
       <c r="R25" t="n">
-        <v>7402041.545192691</v>
+        <v>7401876.218543597</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3405,10 +3415,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>110352305</v>
+        <v>110352253</v>
       </c>
       <c r="B26" t="n">
-        <v>96251</v>
+        <v>96354</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3421,21 +3431,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219790</v>
+        <v>221952</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3445,10 +3455,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>872451.9080311639</v>
+        <v>872183.3300152288</v>
       </c>
       <c r="R26" t="n">
-        <v>7401966.653339936</v>
+        <v>7401853.26038431</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3517,10 +3527,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110352284</v>
+        <v>110352259</v>
       </c>
       <c r="B27" t="n">
-        <v>96334</v>
+        <v>56411</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3529,50 +3539,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>dm²</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>872078.285623329</v>
+        <v>872139.4517165683</v>
       </c>
       <c r="R27" t="n">
-        <v>7401772.891897229</v>
+        <v>7401777.531099883</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3623,7 +3621,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3642,10 +3639,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>110352257</v>
+        <v>110352248</v>
       </c>
       <c r="B28" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3654,25 +3651,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3682,10 +3679,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>872742.4832542776</v>
+        <v>871759.5004132842</v>
       </c>
       <c r="R28" t="n">
-        <v>7401759.483955508</v>
+        <v>7401830.669261035</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3754,10 +3751,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>110352272</v>
+        <v>110352290</v>
       </c>
       <c r="B29" t="n">
-        <v>95525</v>
+        <v>77506</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3766,25 +3763,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3794,10 +3791,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>872757.6859652263</v>
+        <v>872102.0461973262</v>
       </c>
       <c r="R29" t="n">
-        <v>7401748.631772862</v>
+        <v>7401860.019874323</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3866,10 +3863,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>110352224</v>
+        <v>110352254</v>
       </c>
       <c r="B30" t="n">
-        <v>89392</v>
+        <v>96354</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3878,25 +3875,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>221952</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3906,10 +3903,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>872530.1257209047</v>
+        <v>872204.6734910461</v>
       </c>
       <c r="R30" t="n">
-        <v>7401958.682721399</v>
+        <v>7401898.507746806</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3978,10 +3975,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>110352258</v>
+        <v>110352256</v>
       </c>
       <c r="B31" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3990,25 +3987,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4018,10 +4015,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>872413.2668344975</v>
+        <v>872460.9337284705</v>
       </c>
       <c r="R31" t="n">
-        <v>7401691.110938008</v>
+        <v>7401962.630287396</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4090,10 +4087,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>110352306</v>
+        <v>110352296</v>
       </c>
       <c r="B32" t="n">
-        <v>96251</v>
+        <v>77506</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4102,25 +4099,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4130,10 +4127,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>872460.9337284705</v>
+        <v>872016.0037818676</v>
       </c>
       <c r="R32" t="n">
-        <v>7401962.630287396</v>
+        <v>7401866.138258775</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4202,10 +4199,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>110352303</v>
+        <v>110352265</v>
       </c>
       <c r="B33" t="n">
-        <v>96251</v>
+        <v>56411</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4214,25 +4211,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>219790</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4242,10 +4239,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>872447.0637659379</v>
+        <v>871853.3204447492</v>
       </c>
       <c r="R33" t="n">
-        <v>7401954.701530484</v>
+        <v>7401542.776755353</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4314,10 +4311,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>110352289</v>
+        <v>110352241</v>
       </c>
       <c r="B34" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4326,25 +4323,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4354,10 +4351,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>872429.4114879651</v>
+        <v>871887.4526498909</v>
       </c>
       <c r="R34" t="n">
-        <v>7401685.226157704</v>
+        <v>7401535.284248191</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4426,10 +4423,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>110352260</v>
+        <v>110352299</v>
       </c>
       <c r="B35" t="n">
-        <v>56411</v>
+        <v>77506</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4442,21 +4439,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4466,10 +4463,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>872093.3196143582</v>
+        <v>872596.8533211274</v>
       </c>
       <c r="R35" t="n">
-        <v>7401843.912864308</v>
+        <v>7402041.545192691</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4538,7 +4535,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>110352240</v>
+        <v>110352249</v>
       </c>
       <c r="B36" t="n">
         <v>96354</v>
@@ -4578,10 +4575,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>872693.7185518006</v>
+        <v>871878.3030424744</v>
       </c>
       <c r="R36" t="n">
-        <v>7401755.704120613</v>
+        <v>7401845.106712915</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4650,10 +4647,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>110352255</v>
+        <v>110352305</v>
       </c>
       <c r="B37" t="n">
-        <v>96354</v>
+        <v>96251</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4666,21 +4663,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4690,10 +4687,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>872223.475517925</v>
+        <v>872451.9080311639</v>
       </c>
       <c r="R37" t="n">
-        <v>7401929.694435073</v>
+        <v>7401966.653339936</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4762,10 +4759,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>110352298</v>
+        <v>110352262</v>
       </c>
       <c r="B38" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4778,21 +4775,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4802,10 +4799,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>872365.4414770559</v>
+        <v>871860.5938579786</v>
       </c>
       <c r="R38" t="n">
-        <v>7401841.585346792</v>
+        <v>7401509.867907663</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4874,10 +4871,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>109587663</v>
+        <v>110352245</v>
       </c>
       <c r="B39" t="n">
-        <v>95519</v>
+        <v>96354</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4890,47 +4887,37 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221945</v>
+        <v>221952</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>m²</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>(L.) Rich.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>872056.2819645405</v>
+        <v>871793.2460697003</v>
       </c>
       <c r="R39" t="n">
-        <v>7401693.665084289</v>
+        <v>7401781.168659667</v>
       </c>
       <c r="S39" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4954,22 +4941,22 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-05-28</t>
+          <t>2023-06-12</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>13:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4984,22 +4971,22 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Viktoria Sturk</t>
+          <t>Marie Karlsson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>110352267</v>
+        <v>110352244</v>
       </c>
       <c r="B40" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5008,25 +4995,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5036,10 +5023,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>872016.0037818676</v>
+        <v>871856.9393482964</v>
       </c>
       <c r="R40" t="n">
-        <v>7401866.138258775</v>
+        <v>7401578.77064613</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5108,10 +5095,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>110352273</v>
+        <v>110352284</v>
       </c>
       <c r="B41" t="n">
-        <v>95525</v>
+        <v>96334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5120,38 +5107,50 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>221941</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Likakurunvuoma, Nb</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>872002.9214147618</v>
+        <v>872078.285623329</v>
       </c>
       <c r="R41" t="n">
-        <v>7401717.921293773</v>
+        <v>7401772.891897229</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5202,6 +5201,7 @@
       <c r="AE41" t="b">
         <v>0</v>
       </c>
+      <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="b">
         <v>0</v>
       </c>
@@ -5220,10 +5220,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>110352294</v>
+        <v>110352308</v>
       </c>
       <c r="B42" t="n">
-        <v>77506</v>
+        <v>78602</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5232,20 +5232,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>871789.0876757605</v>
+        <v>872032.4707695446</v>
       </c>
       <c r="R42" t="n">
-        <v>7401785.044630839</v>
+        <v>7401777.18773846</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5332,10 +5332,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>110352293</v>
+        <v>110352257</v>
       </c>
       <c r="B43" t="n">
-        <v>77506</v>
+        <v>56411</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5348,21 +5348,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>871853.036014237</v>
+        <v>872742.4832542776</v>
       </c>
       <c r="R43" t="n">
-        <v>7401571.787869599</v>
+        <v>7401759.483955508</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5444,10 +5444,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>110352237</v>
+        <v>110352272</v>
       </c>
       <c r="B44" t="n">
-        <v>56540</v>
+        <v>95525</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5456,25 +5456,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>103021</v>
+        <v>221941</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5484,10 +5484,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>872036.8534421038</v>
+        <v>872757.6859652263</v>
       </c>
       <c r="R44" t="n">
-        <v>7401876.218543597</v>
+        <v>7401748.631772862</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5556,10 +5556,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>110352248</v>
+        <v>110352224</v>
       </c>
       <c r="B45" t="n">
-        <v>96354</v>
+        <v>89392</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5568,25 +5568,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>221952</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5596,10 +5596,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>871759.5004132842</v>
+        <v>872530.1257209047</v>
       </c>
       <c r="R45" t="n">
-        <v>7401830.669261035</v>
+        <v>7401958.682721399</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>110352296</v>
+        <v>110352292</v>
       </c>
       <c r="B46" t="n">
         <v>77506</v>
@@ -5708,10 +5708,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>872016.0037818676</v>
+        <v>871856.3769793685</v>
       </c>
       <c r="R46" t="n">
-        <v>7401866.138258775</v>
+        <v>7401550.048651446</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5780,7 +5780,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>110352265</v>
+        <v>110352258</v>
       </c>
       <c r="B47" t="n">
         <v>56411</v>
@@ -5820,10 +5820,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>871853.3204447492</v>
+        <v>872413.2668344975</v>
       </c>
       <c r="R47" t="n">
-        <v>7401542.776755353</v>
+        <v>7401691.110938008</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5892,10 +5892,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>110352241</v>
+        <v>110352302</v>
       </c>
       <c r="B48" t="n">
-        <v>96354</v>
+        <v>96251</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5908,21 +5908,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5932,10 +5932,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>871887.4526498909</v>
+        <v>871853.0263343945</v>
       </c>
       <c r="R48" t="n">
-        <v>7401535.284248191</v>
+        <v>7401577.838512736</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>110352249</v>
+        <v>110352295</v>
       </c>
       <c r="B49" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6016,25 +6016,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>871878.3030424744</v>
+        <v>871735.0676543417</v>
       </c>
       <c r="R49" t="n">
-        <v>7401845.106712915</v>
+        <v>7401811.231889402</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>110352262</v>
+        <v>110352306</v>
       </c>
       <c r="B50" t="n">
-        <v>56411</v>
+        <v>96251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6128,25 +6128,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>219790</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6156,10 +6156,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>871860.5938579786</v>
+        <v>872460.9337284705</v>
       </c>
       <c r="R50" t="n">
-        <v>7401509.867907663</v>
+        <v>7401962.630287396</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>110352245</v>
+        <v>110352247</v>
       </c>
       <c r="B51" t="n">
         <v>96354</v>
@@ -6268,10 +6268,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>871793.2460697003</v>
+        <v>871724.6925151362</v>
       </c>
       <c r="R51" t="n">
-        <v>7401781.168659667</v>
+        <v>7401816.285272104</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>110352244</v>
+        <v>110352303</v>
       </c>
       <c r="B52" t="n">
-        <v>96354</v>
+        <v>96251</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6356,21 +6356,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>221952</v>
+        <v>219790</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6380,10 +6380,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>871856.9393482964</v>
+        <v>872447.0637659379</v>
       </c>
       <c r="R52" t="n">
-        <v>7401578.77064613</v>
+        <v>7401954.701530484</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>110352308</v>
+        <v>110352274</v>
       </c>
       <c r="B53" t="n">
-        <v>78602</v>
+        <v>95525</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6468,21 +6468,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6463</v>
+        <v>221941</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>872032.4707695446</v>
+        <v>871970.8201866623</v>
       </c>
       <c r="R53" t="n">
-        <v>7401777.18773846</v>
+        <v>7401665.571619499</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>110352292</v>
+        <v>110352289</v>
       </c>
       <c r="B54" t="n">
         <v>77506</v>
@@ -6604,10 +6604,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>871856.3769793685</v>
+        <v>872429.4114879651</v>
       </c>
       <c r="R54" t="n">
-        <v>7401550.048651446</v>
+        <v>7401685.226157704</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6676,10 +6676,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>110352302</v>
+        <v>110352291</v>
       </c>
       <c r="B55" t="n">
-        <v>96251</v>
+        <v>77506</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6688,25 +6688,25 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>219790</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6716,10 +6716,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>871853.0263343945</v>
+        <v>872046.3208336993</v>
       </c>
       <c r="R55" t="n">
-        <v>7401577.838512736</v>
+        <v>7401782.287589862</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6788,10 +6788,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>110352295</v>
+        <v>110352239</v>
       </c>
       <c r="B56" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6800,25 +6800,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6828,10 +6828,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>871735.0676543417</v>
+        <v>872030.4543363631</v>
       </c>
       <c r="R56" t="n">
-        <v>7401811.231889402</v>
+        <v>7401765.215295625</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6900,7 +6900,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>110352247</v>
+        <v>110352243</v>
       </c>
       <c r="B57" t="n">
         <v>96354</v>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>871724.6925151362</v>
+        <v>871855.0483325503</v>
       </c>
       <c r="R57" t="n">
-        <v>7401816.285272104</v>
+        <v>7401553.903812508</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7012,10 +7012,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>110352274</v>
+        <v>110352260</v>
       </c>
       <c r="B58" t="n">
-        <v>95525</v>
+        <v>56411</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7024,25 +7024,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>221941</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7052,10 +7052,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>871970.8201866623</v>
+        <v>872093.3196143582</v>
       </c>
       <c r="R58" t="n">
-        <v>7401665.571619499</v>
+        <v>7401843.912864308</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7124,10 +7124,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>110352291</v>
+        <v>110352240</v>
       </c>
       <c r="B59" t="n">
-        <v>77506</v>
+        <v>96354</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7136,25 +7136,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7164,10 +7164,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>872046.3208336993</v>
+        <v>872693.7185518006</v>
       </c>
       <c r="R59" t="n">
-        <v>7401782.287589862</v>
+        <v>7401755.704120613</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7236,10 +7236,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>110352239</v>
+        <v>110352255</v>
       </c>
       <c r="B60" t="n">
-        <v>78596</v>
+        <v>96354</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7252,21 +7252,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6462</v>
+        <v>221952</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7276,10 +7276,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>872030.4543363631</v>
+        <v>872223.475517925</v>
       </c>
       <c r="R60" t="n">
-        <v>7401765.215295625</v>
+        <v>7401929.694435073</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7348,10 +7348,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>110352243</v>
+        <v>110352266</v>
       </c>
       <c r="B61" t="n">
-        <v>96354</v>
+        <v>56411</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7360,25 +7360,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>221952</v>
+        <v>100049</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7388,10 +7388,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>871855.0483325503</v>
+        <v>871805.858204409</v>
       </c>
       <c r="R61" t="n">
-        <v>7401553.903812508</v>
+        <v>7401816.357206343</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7460,10 +7460,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>110352266</v>
+        <v>110352246</v>
       </c>
       <c r="B62" t="n">
-        <v>56411</v>
+        <v>96354</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7472,25 +7472,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100049</v>
+        <v>221952</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7500,10 +7500,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>871805.858204409</v>
+        <v>871787.318648403</v>
       </c>
       <c r="R62" t="n">
-        <v>7401816.357206343</v>
+        <v>7401783.191921631</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7572,10 +7572,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>110352246</v>
+        <v>110352298</v>
       </c>
       <c r="B63" t="n">
-        <v>96354</v>
+        <v>77506</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7584,25 +7584,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7612,10 +7612,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>871787.318648403</v>
+        <v>872365.4414770559</v>
       </c>
       <c r="R63" t="n">
-        <v>7401783.191921631</v>
+        <v>7401841.585346792</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
